--- a/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
+++ b/Listas de precios/mayorista/BULON CABEZA REDONDA DISMAY.xlsx
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1411,49 +1411,49 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
